--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value92.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value92.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9722789387065809</v>
+        <v>4.102927207946777</v>
       </c>
       <c r="B1">
-        <v>1.174702319437935</v>
+        <v>3.938858032226562</v>
       </c>
       <c r="C1">
-        <v>1.586737464542666</v>
+        <v>2.801111459732056</v>
       </c>
       <c r="D1">
-        <v>4.098636222336437</v>
+        <v>2.228824377059937</v>
       </c>
       <c r="E1">
-        <v>3.759375017849563</v>
+        <v>1.823323845863342</v>
       </c>
     </row>
   </sheetData>
